--- a/Data/EC/NIT-9009260332.xlsx
+++ b/Data/EC/NIT-9009260332.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E2713E-0C4D-4739-8D10-D182595CFAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD96632-0C45-4404-B9E5-93600D46FE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7166CF08-E75A-4A2E-833C-B43551B23BA1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF42C346-F3E7-4F04-B780-C0AB9FB8F235}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,64 +71,64 @@
     <t>ISABEL CRISTINA DURAN PEÑA</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
     <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -172,7 +172,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D42B4B-2068-FE3C-CA66-A707E2DF1A01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5255F31C-2426-D89F-960E-17A7E35A58DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,28 +893,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854BE998-8127-4BEC-8909-5580EC373080}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DAA792-DE42-4381-AD10-D5B47109B143}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -927,7 +927,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -938,7 +938,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -949,7 +949,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -960,8 +960,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
@@ -976,8 +976,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -992,8 +992,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1008,8 +1008,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1071,16 +1071,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>30916</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1094,16 +1094,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1117,16 +1117,16 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1140,16 +1140,16 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1186,16 +1186,16 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1209,16 +1209,16 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>26041</v>
+        <v>33125</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1235,13 +1235,13 @@
         <v>33125</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1258,13 +1258,13 @@
         <v>33125</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1281,13 +1281,13 @@
         <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1304,13 +1304,13 @@
         <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1327,13 +1327,13 @@
         <v>33125</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1350,13 +1350,13 @@
         <v>33125</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1370,16 +1370,16 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>26041</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1393,16 +1393,16 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1416,16 +1416,16 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1439,16 +1439,16 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1485,16 +1485,16 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="21" t="s">
         <v>8</v>
       </c>
@@ -1508,16 +1508,16 @@
         <v>30</v>
       </c>
       <c r="F35" s="24">
-        <v>30916</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="24">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="26"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="32" t="s">
         <v>40</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="32" t="s">
         <v>39</v>
       </c>

--- a/Data/EC/NIT-9009260332.xlsx
+++ b/Data/EC/NIT-9009260332.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD96632-0C45-4404-B9E5-93600D46FE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47ABA94C-3ECC-41F8-BEB1-1E5428196FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF42C346-F3E7-4F04-B780-C0AB9FB8F235}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2D0AFBA-613B-4FF9-A9E5-6B0A45C96908}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,64 +71,64 @@
     <t>ISABEL CRISTINA DURAN PEÑA</t>
   </si>
   <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -172,7 +172,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,7 +227,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -240,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,23 +442,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +486,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,13 +527,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -542,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5255F31C-2426-D89F-960E-17A7E35A58DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6232A8C-D8E9-FE94-1A5A-DC21D0131F6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -564,7 +564,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -893,28 +893,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DAA792-DE42-4381-AD10-D5B47109B143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BF59C1-22F9-4105-90E7-EECB0A755F8A}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -927,7 +927,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -938,7 +938,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -949,7 +949,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -960,8 +960,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
@@ -976,8 +976,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -992,8 +992,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1008,8 +1008,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30916</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1080,7 +1080,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>828116</v>
@@ -1103,7 +1103,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>828116</v>
@@ -1126,7 +1126,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>828116</v>
@@ -1149,7 +1149,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>828116</v>
@@ -1172,7 +1172,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>828116</v>
@@ -1195,7 +1195,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>26041</v>
       </c>
       <c r="G22" s="18">
         <v>828116</v>
@@ -1218,7 +1218,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>26041</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1379,7 +1379,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G30" s="18">
         <v>828116</v>
@@ -1402,7 +1402,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G31" s="18">
         <v>828116</v>
@@ -1425,7 +1425,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G32" s="18">
         <v>828116</v>
@@ -1448,7 +1448,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G33" s="18">
         <v>828116</v>
@@ -1471,7 +1471,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G34" s="18">
         <v>828116</v>
@@ -1494,7 +1494,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="21" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="24">
-        <v>31249</v>
+        <v>30916</v>
       </c>
       <c r="G35" s="24">
         <v>828116</v>
@@ -1517,7 +1517,7 @@
       <c r="I35" s="25"/>
       <c r="J35" s="26"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="32" t="s">
         <v>40</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="32" t="s">
         <v>39</v>
       </c>

--- a/Data/EC/NIT-9009260332.xlsx
+++ b/Data/EC/NIT-9009260332.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47ABA94C-3ECC-41F8-BEB1-1E5428196FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8EFCF92-4A75-4FD1-BD67-011FB404CB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2D0AFBA-613B-4FF9-A9E5-6B0A45C96908}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7CCD12B9-54A5-4A59-80EC-3069B45759C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,9 +227,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -242,7 +240,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -436,29 +436,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,19 +477,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,13 +533,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>189350</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -542,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6232A8C-D8E9-FE94-1A5A-DC21D0131F6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDFEC61-CDA8-C181-02C0-9EFDAF0BF6BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -564,7 +570,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680600" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -893,80 +899,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BF59C1-22F9-4105-90E7-EECB0A755F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D74E2-9D8C-4686-B525-A19CC26649DD}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -976,13 +982,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9009260332</v>
       </c>
@@ -992,13 +998,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>641951</v>
       </c>
@@ -1008,8 +1014,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
@@ -1028,7 +1034,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1067,20 +1073,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>31249</v>
       </c>
-      <c r="G16" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="G16" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1090,20 +1096,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>31249</v>
       </c>
-      <c r="G17" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="G17" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1113,20 +1119,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>31249</v>
       </c>
-      <c r="G18" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="G18" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1136,20 +1142,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>31249</v>
       </c>
-      <c r="G19" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="G19" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1159,20 +1165,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>31249</v>
       </c>
-      <c r="G20" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="G20" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1182,20 +1188,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>31249</v>
       </c>
-      <c r="G21" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="G21" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1205,20 +1211,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>26041</v>
       </c>
-      <c r="G22" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="G22" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1228,20 +1234,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>33125</v>
       </c>
-      <c r="G23" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="G23" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1251,20 +1257,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>33125</v>
       </c>
-      <c r="G24" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="G24" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1274,20 +1280,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>33125</v>
       </c>
-      <c r="G25" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="G25" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1297,20 +1303,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>33125</v>
       </c>
-      <c r="G26" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="G26" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1320,20 +1326,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>33125</v>
       </c>
-      <c r="G27" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="G27" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1343,20 +1349,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>33125</v>
       </c>
-      <c r="G28" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="G28" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1366,20 +1372,20 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>33125</v>
       </c>
-      <c r="G29" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="G29" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1389,20 +1395,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>33125</v>
       </c>
-      <c r="G30" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="G30" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1412,20 +1418,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>33125</v>
       </c>
-      <c r="G31" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="G31" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1435,20 +1441,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>33125</v>
       </c>
-      <c r="G32" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="G32" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1458,20 +1464,20 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>33125</v>
       </c>
-      <c r="G33" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="G33" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1481,58 +1487,58 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>33125</v>
       </c>
-      <c r="G34" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="22" t="s">
+      <c r="G34" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="26">
         <v>30916</v>
       </c>
-      <c r="G35" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="32" t="s">
+      <c r="G35" s="26">
+        <v>828116</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="32"/>
+      <c r="C40" s="34"/>
       <c r="H40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="32" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="34"/>
       <c r="H41" s="1" t="s">
         <v>41</v>
       </c>
